--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -16,79 +16,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米克尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#测试说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有强力攻击技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
+    <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="C3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -523,67 +523,67 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -591,13 +591,13 @@
         <v>1001</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
